--- a/民族体育项目打分汇总表.xlsx
+++ b/民族体育项目打分汇总表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>project</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
-    <t>泽普县_民族射箭</t>
   </si>
   <si>
     <t>文化象征性</t>
@@ -1295,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1303,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -1345,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1353,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -1395,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1403,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -1445,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1453,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>85</v>
@@ -1495,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1503,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>83</v>
@@ -1545,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1553,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>76</v>
@@ -1595,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1603,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>94</v>
@@ -1645,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1653,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>77</v>
@@ -1695,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1703,7 +1700,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>86</v>
@@ -1745,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1753,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -1795,7 +1792,7 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1803,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>88</v>
@@ -1845,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1853,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>88</v>
@@ -1895,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1903,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>87</v>
@@ -1945,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1953,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>87</v>
@@ -1995,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2003,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>75</v>
@@ -2045,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2053,7 +2050,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>76</v>
@@ -2095,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2103,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>87</v>
@@ -2145,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2153,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>79</v>
@@ -2195,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2203,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -2245,7 +2242,7 @@
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2253,7 +2250,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>89</v>
@@ -2295,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2303,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>89</v>
@@ -2345,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2353,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>87</v>
@@ -2395,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2403,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>81</v>
@@ -2445,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2453,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>89</v>
@@ -2495,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2503,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>92</v>
@@ -2545,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2553,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>83</v>
@@ -2595,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2603,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>82</v>
@@ -2645,7 +2642,7 @@
         <v>20</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2653,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>88</v>
@@ -2695,7 +2692,7 @@
         <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2703,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>85</v>
@@ -2745,7 +2742,7 @@
         <v>20</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2753,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>82</v>
@@ -2795,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2803,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>93</v>
@@ -2845,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
